--- a/КАМСКОЙЛ.xlsx
+++ b/КАМСКОЙЛ.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\risk_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCB60DC-9F43-4AF7-BD60-ED2D8ADE9805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Масса исп." sheetId="3" r:id="rId1"/>
     <sheet name="Масса ОВ" sheetId="2" r:id="rId2"/>
     <sheet name="Сценарии" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{27C72E8A-2B13-446A-90B4-7DAA837366D5}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,12 +53,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{86953B71-5749-4506-AADD-1BF18A5E3A1B}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{475E8D60-3D14-412C-A6AE-B78E018FE3A6}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="251">
   <si>
     <t xml:space="preserve">Технологический блок, оборудование </t>
   </si>
@@ -406,9 +406,6 @@
     <t>С3</t>
   </si>
   <si>
-    <t>Полное разрушение→ отсутствие мгновенного воспламенения→возможность образования взрывоопасного облака→ отсутсвие отсроченного воспламенения → ликвидация аварии</t>
-  </si>
-  <si>
     <t>Полное-ликвидация</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>С5</t>
   </si>
   <si>
-    <t>Частичная разгерметизация→ разрушение ниже уровня жидкости→отсутсвие мгновенного воспламенения→ликвидация аварии</t>
-  </si>
-  <si>
     <t>Частичное-ликвидация</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
   </si>
   <si>
     <t>Q=120</t>
-  </si>
-  <si>
-    <t>Кол-во погиших, чел</t>
   </si>
   <si>
     <t>Кол-во пострадавших, чел</t>
@@ -633,22 +624,294 @@
   </si>
   <si>
     <t>Частичное-шар</t>
+  </si>
+  <si>
+    <t>Полное разрушение→ отсутствие мгновенного воспламенения→возможность образования взрывоопасного облака→ отсутствие отсроченного воспламенения → ликвидация аварии</t>
+  </si>
+  <si>
+    <t>Частичная разгерметизация→ разрушение ниже уровня жидкости→отсутствие мгновенного воспламенения→ликвидация аварии</t>
+  </si>
+  <si>
+    <t>С10</t>
+  </si>
+  <si>
+    <t>С11</t>
+  </si>
+  <si>
+    <t>С12</t>
+  </si>
+  <si>
+    <t>С13</t>
+  </si>
+  <si>
+    <t>С14</t>
+  </si>
+  <si>
+    <t>С15</t>
+  </si>
+  <si>
+    <t>С16</t>
+  </si>
+  <si>
+    <t>С17</t>
+  </si>
+  <si>
+    <t>С18</t>
+  </si>
+  <si>
+    <t>С19</t>
+  </si>
+  <si>
+    <t>С20</t>
+  </si>
+  <si>
+    <t>С21</t>
+  </si>
+  <si>
+    <t>С22</t>
+  </si>
+  <si>
+    <t>С23</t>
+  </si>
+  <si>
+    <t>С24</t>
+  </si>
+  <si>
+    <t>С25</t>
+  </si>
+  <si>
+    <t>С26</t>
+  </si>
+  <si>
+    <t>С27</t>
+  </si>
+  <si>
+    <t>С28</t>
+  </si>
+  <si>
+    <t>С29</t>
+  </si>
+  <si>
+    <t>С30</t>
+  </si>
+  <si>
+    <t>С31</t>
+  </si>
+  <si>
+    <t>С32</t>
+  </si>
+  <si>
+    <t>С33</t>
+  </si>
+  <si>
+    <t>С34</t>
+  </si>
+  <si>
+    <t>С35</t>
+  </si>
+  <si>
+    <t>С36</t>
+  </si>
+  <si>
+    <t>С37</t>
+  </si>
+  <si>
+    <t>С38</t>
+  </si>
+  <si>
+    <t>С39</t>
+  </si>
+  <si>
+    <t>С40</t>
+  </si>
+  <si>
+    <t>С41</t>
+  </si>
+  <si>
+    <t>С42</t>
+  </si>
+  <si>
+    <t>С43</t>
+  </si>
+  <si>
+    <t>С44</t>
+  </si>
+  <si>
+    <t>С45</t>
+  </si>
+  <si>
+    <t>С46</t>
+  </si>
+  <si>
+    <t>С47</t>
+  </si>
+  <si>
+    <t>С48</t>
+  </si>
+  <si>
+    <t>С49</t>
+  </si>
+  <si>
+    <t>С50</t>
+  </si>
+  <si>
+    <t>С51</t>
+  </si>
+  <si>
+    <t>С52</t>
+  </si>
+  <si>
+    <t>С53</t>
+  </si>
+  <si>
+    <t>С54</t>
+  </si>
+  <si>
+    <t>С55</t>
+  </si>
+  <si>
+    <t>С56</t>
+  </si>
+  <si>
+    <t>С57</t>
+  </si>
+  <si>
+    <t>С58</t>
+  </si>
+  <si>
+    <t>С59</t>
+  </si>
+  <si>
+    <t>С60</t>
+  </si>
+  <si>
+    <t>С61</t>
+  </si>
+  <si>
+    <t>С62</t>
+  </si>
+  <si>
+    <t>С63</t>
+  </si>
+  <si>
+    <t>С64</t>
+  </si>
+  <si>
+    <t>С65</t>
+  </si>
+  <si>
+    <t>С66</t>
+  </si>
+  <si>
+    <t>С67</t>
+  </si>
+  <si>
+    <t>С68</t>
+  </si>
+  <si>
+    <t>С69</t>
+  </si>
+  <si>
+    <t>С70</t>
+  </si>
+  <si>
+    <t>С71</t>
+  </si>
+  <si>
+    <t>С72</t>
+  </si>
+  <si>
+    <t>С73</t>
+  </si>
+  <si>
+    <t>С74</t>
+  </si>
+  <si>
+    <t>С75</t>
+  </si>
+  <si>
+    <t>С76</t>
+  </si>
+  <si>
+    <t>С77</t>
+  </si>
+  <si>
+    <t>С78</t>
+  </si>
+  <si>
+    <t>С79</t>
+  </si>
+  <si>
+    <t>С80</t>
+  </si>
+  <si>
+    <t>С81</t>
+  </si>
+  <si>
+    <t>С82</t>
+  </si>
+  <si>
+    <t>С83</t>
+  </si>
+  <si>
+    <t>С84</t>
+  </si>
+  <si>
+    <t>С85</t>
+  </si>
+  <si>
+    <t>С86</t>
+  </si>
+  <si>
+    <t>С87</t>
+  </si>
+  <si>
+    <t>С88</t>
+  </si>
+  <si>
+    <t>С89</t>
+  </si>
+  <si>
+    <t>С90</t>
+  </si>
+  <si>
+    <t>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</t>
+  </si>
+  <si>
+    <t>Полноетокси</t>
+  </si>
+  <si>
+    <t>Полное разрушение→ отсутствие мгновенного воспламенения→возможность образования взрывоопасного облака→ отсутствие отсроченного воспламенения → токсическое поражение</t>
+  </si>
+  <si>
+    <t>Кол-во погибших, чел</t>
+  </si>
+  <si>
+    <t>С6+A76A56:A2:A117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,6 +993,13 @@
       <sz val="11"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1260,240 +1530,253 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="11" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="11" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="11" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="11" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{3778B339-E923-44AF-820B-1704EA6DFCA3}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1770,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F73F6E6-952F-4660-AA46-B79AC0E5BB9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -1778,30 +2061,30 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="59" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" style="59" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="59" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="12.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="47" customFormat="1" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="47" customFormat="1" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>47</v>
       </c>
@@ -1848,7 +2131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>62</v>
       </c>
@@ -1900,7 +2183,7 @@
         <v>0.2508620163041192</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
@@ -1952,7 +2235,7 @@
         <v>0.56443953668426805</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>64</v>
       </c>
@@ -2003,7 +2286,7 @@
         <v>0.62715504076029793</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52" t="s">
         <v>65</v>
       </c>
@@ -2054,7 +2337,7 @@
         <v>0.62715504076029793</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>66</v>
       </c>
@@ -2105,7 +2388,7 @@
         <v>0.62715504076029793</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2440,7 @@
         <v>0.10034480652164766</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>68</v>
       </c>
@@ -2212,7 +2495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="57" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>70</v>
       </c>
@@ -2264,9 +2547,9 @@
         <v>2.6340511711932513E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="53">
         <v>20</v>
@@ -2316,7 +2599,7 @@
         <v>7.5258604891235745E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>72</v>
       </c>
@@ -2368,7 +2651,7 @@
         <v>7.5258604891235745E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="60" t="s">
         <v>73</v>
       </c>
@@ -2420,7 +2703,7 @@
         <v>3.7629302445617872E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
         <v>74</v>
       </c>
@@ -2472,7 +2755,7 @@
         <v>1.5209999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>75</v>
       </c>
@@ -2524,7 +2807,7 @@
         <v>4.4459999999999986E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
         <v>76</v>
       </c>
@@ -2576,7 +2859,7 @@
         <v>1.5209999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="57" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="57" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
         <v>77</v>
       </c>
@@ -2628,7 +2911,7 @@
         <v>2.5271999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="57" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="57" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
         <v>78</v>
       </c>
@@ -2680,7 +2963,7 @@
         <v>8.145453491637393E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="57" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="57" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
         <v>79</v>
       </c>
@@ -2740,7 +3023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987FA5C0-91E9-4EB0-BADA-F6A59308574D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -2751,67 +3034,67 @@
       <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="41" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="8"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="41" customWidth="1"/>
     <col min="13" max="13" width="12" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="7"/>
-    <col min="18" max="18" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="13.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="7"/>
+    <col min="18" max="18" width="8.85546875" style="2"/>
     <col min="19" max="19" width="15" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2"/>
+    <col min="20" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="146" t="s">
+    <row r="1" spans="1:20" ht="62.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="151"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="140" t="s">
+      <c r="G1" s="156"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="J1" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="140" t="s">
+      <c r="M1" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="142" t="s">
+      <c r="N1" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="140" t="s">
+      <c r="O1" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="144" t="s">
+      <c r="P1" s="159" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -2821,7 +3104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2846,16 +3129,16 @@
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="145"/>
-    </row>
-    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="160"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2918,7 +3201,7 @@
         <v>454.81213437074985</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>25</v>
       </c>
@@ -2978,7 +3261,7 @@
         <v>1238.7188706665756</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>28</v>
       </c>
@@ -3038,7 +3321,7 @@
         <v>15.199003683494027</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
         <v>30</v>
       </c>
@@ -3098,7 +3381,7 @@
         <v>43.671659683494028</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>32</v>
       </c>
@@ -3151,7 +3434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
@@ -3204,7 +3487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
@@ -3257,7 +3540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>35</v>
       </c>
@@ -3311,7 +3594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>38</v>
       </c>
@@ -3417,7 +3700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>39</v>
       </c>
@@ -3470,7 +3753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +3806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>41</v>
       </c>
@@ -3576,7 +3859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
@@ -3629,7 +3912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>43</v>
       </c>
@@ -3682,7 +3965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>44</v>
       </c>
@@ -3735,7 +4018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>45</v>
       </c>
@@ -3788,7 +4071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
         <v>46</v>
       </c>
@@ -3841,33 +4124,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" s="42"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E24" s="46"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E26" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3875,81 +4158,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA556440-F600-40E4-8BDB-8C56C9F8727E}">
-  <dimension ref="A1:BB130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R117" sqref="R117"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W135" sqref="W135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="58" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="58" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="37.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="58" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="37.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="31" style="2" customWidth="1"/>
-    <col min="16" max="33" width="8.88671875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="10.88671875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="22.6640625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="17.88671875" style="2" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" style="2" customWidth="1"/>
-    <col min="39" max="41" width="8.88671875" style="2" customWidth="1"/>
-    <col min="42" max="42" width="12.33203125" style="2" customWidth="1"/>
-    <col min="43" max="43" width="11.88671875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="10.44140625" style="2" customWidth="1"/>
-    <col min="45" max="45" width="14.33203125" style="2" customWidth="1"/>
+    <col min="16" max="33" width="8.85546875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="13.28515625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="22.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="17.85546875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" style="2" customWidth="1"/>
+    <col min="39" max="41" width="8.85546875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="12.28515625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="11.85546875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="10.42578125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" style="2" customWidth="1"/>
     <col min="46" max="46" width="12" style="2" customWidth="1"/>
-    <col min="47" max="47" width="11.109375" style="2" customWidth="1"/>
-    <col min="48" max="48" width="13.6640625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="11.140625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" style="2" customWidth="1"/>
     <col min="49" max="49" width="16" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="8.88671875" style="2"/>
+    <col min="50" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>118</v>
       </c>
       <c r="M1" s="42" t="str">
         <f t="shared" ref="M1:N10" si="0">A1</f>
@@ -3964,100 +4247,100 @@
         <v>Кратко сценарий</v>
       </c>
       <c r="P1" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="S1" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="T1" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="U1" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="V1" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="W1" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="X1" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="Y1" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="Z1" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="AA1" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="Z1" s="87" t="s">
+      <c r="AB1" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" s="87" t="s">
+      <c r="AC1" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AD1" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" s="47" t="s">
+      <c r="AE1" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" s="87" t="s">
+      <c r="AF1" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AG1" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AH1" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI1" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AG1" s="87" t="s">
+      <c r="AJ1" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AK1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AL1" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AJ1" s="88" t="s">
+      <c r="AO1" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AP1" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AQ1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" s="48" t="s">
+      <c r="AR1" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" s="48" t="s">
+      <c r="AS1" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" s="48" t="s">
+      <c r="AT1" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" s="48" t="s">
+      <c r="AU1" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" s="48" t="s">
+      <c r="AV1" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" s="48" t="s">
+      <c r="AW1" s="48" t="s">
         <v>147</v>
-      </c>
-      <c r="AU1" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV1" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW1" s="48" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:49" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4389,10 +4672,10 @@
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>91</v>
       </c>
       <c r="E4" s="102">
         <f>E2</f>
@@ -4417,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="106">
         <v>3</v>
@@ -4545,17 +4828,17 @@
     </row>
     <row r="5" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="89" t="str">
         <f>B2</f>
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E5" s="92">
         <v>1.0000000000000001E-5</v>
@@ -4580,7 +4863,7 @@
         <v>3.2099999999999995</v>
       </c>
       <c r="K5" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="106">
         <v>45390</v>
@@ -4708,17 +4991,17 @@
     </row>
     <row r="6" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="89" t="str">
         <f>B2</f>
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="102">
         <f>E5</f>
@@ -4743,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6" s="106">
         <v>3</v>
@@ -4871,17 +5154,17 @@
     </row>
     <row r="7" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="89" t="str">
         <f>B2</f>
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="102">
         <f>E6</f>
@@ -4906,7 +5189,7 @@
         <v>0.48149999999999993</v>
       </c>
       <c r="K7" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L7" s="109">
         <v>12</v>
@@ -5034,17 +5317,17 @@
     </row>
     <row r="8" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="89" t="str">
         <f>B2</f>
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="102">
         <f>E6</f>
@@ -5192,19 +5475,19 @@
         <v>5.2521475921600011E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="89" t="str">
         <f>B2</f>
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="102">
         <f>E6</f>
@@ -5353,17 +5636,17 @@
     </row>
     <row r="10" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B10" s="89" t="str">
         <f>B2</f>
         <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" s="92">
         <v>2.5000000000000001E-5</v>
@@ -5383,8 +5666,8 @@
         <v>21.4</v>
       </c>
       <c r="J10" s="104">
-        <f>J2*0.3</f>
-        <v>6.419999999999999</v>
+        <f>J2*0.12</f>
+        <v>2.5679999999999996</v>
       </c>
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
@@ -5443,16 +5726,16 @@
         <v>84</v>
       </c>
       <c r="AD10" s="98">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AE10" s="98">
-        <v>105.5</v>
+        <v>66.5</v>
       </c>
       <c r="AF10" s="98">
-        <v>128.5</v>
+        <v>83</v>
       </c>
       <c r="AG10" s="98">
-        <v>168.5</v>
+        <v>112</v>
       </c>
       <c r="AH10" s="98">
         <v>1</v>
@@ -5489,11 +5772,11 @@
       </c>
       <c r="AS10" s="100">
         <f>10068.2*J10*POWER(10,-6)</f>
-        <v>6.4637844E-2</v>
+        <v>2.5855137599999998E-2</v>
       </c>
       <c r="AT10" s="55">
         <f t="shared" si="2"/>
-        <v>6.2653628440000002</v>
+        <v>6.2265801376000001</v>
       </c>
       <c r="AU10" s="101">
         <f>AH10*H10</f>
@@ -5505,10 +5788,10 @@
       </c>
       <c r="AW10" s="101">
         <f>H10*AT10</f>
-        <v>1.5663407110000002E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.5566450344000002E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -5560,7 +5843,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>81</v>
@@ -5600,7 +5883,7 @@
       </c>
       <c r="N12" s="98" t="str">
         <f t="shared" ref="N12:N19" si="15">B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O12" s="98" t="str">
         <f t="shared" ref="O12:O19" si="16">D12</f>
@@ -5718,7 +6001,7 @@
       </c>
       <c r="B13" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>86</v>
@@ -5760,7 +6043,7 @@
       </c>
       <c r="N13" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O13" s="98" t="str">
         <f t="shared" si="16"/>
@@ -5881,13 +6164,13 @@
       </c>
       <c r="B14" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>91</v>
       </c>
       <c r="E14" s="102">
         <f>E12</f>
@@ -5912,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="106">
         <v>3</v>
@@ -5923,7 +6206,7 @@
       </c>
       <c r="N14" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O14" s="98" t="str">
         <f t="shared" si="16"/>
@@ -6040,17 +6323,17 @@
     </row>
     <row r="15" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E15" s="92">
         <v>1.0000000000000001E-5</v>
@@ -6075,7 +6358,7 @@
         <v>7.2224999999999993</v>
       </c>
       <c r="K15" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15" s="106">
         <v>45390</v>
@@ -6086,7 +6369,7 @@
       </c>
       <c r="N15" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O15" s="98" t="str">
         <f t="shared" si="16"/>
@@ -6203,17 +6486,17 @@
     </row>
     <row r="16" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E16" s="102">
         <f>E15</f>
@@ -6238,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16" s="106">
         <v>3</v>
@@ -6249,7 +6532,7 @@
       </c>
       <c r="N16" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O16" s="98" t="str">
         <f t="shared" si="16"/>
@@ -6366,17 +6649,17 @@
     </row>
     <row r="17" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="102">
         <f>E16</f>
@@ -6401,7 +6684,7 @@
         <v>1.0833749999999998</v>
       </c>
       <c r="K17" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L17" s="109">
         <v>12</v>
@@ -6412,7 +6695,7 @@
       </c>
       <c r="N17" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O17" s="98" t="str">
         <f t="shared" si="16"/>
@@ -6529,17 +6812,17 @@
     </row>
     <row r="18" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="102">
         <f>E16</f>
@@ -6572,7 +6855,7 @@
       </c>
       <c r="N18" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O18" s="98" t="str">
         <f t="shared" si="16"/>
@@ -6687,19 +6970,19 @@
         <v>5.6838945823600012E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:49" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="102">
         <f>E16</f>
@@ -6731,7 +7014,7 @@
       </c>
       <c r="N19" s="98" t="str">
         <f t="shared" si="15"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="O19" s="98" t="str">
         <f t="shared" si="16"/>
@@ -6848,17 +7131,17 @@
     </row>
     <row r="20" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B20" s="89" t="str">
         <f>B12</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник ОГ - 50, per. № 14</v>
       </c>
       <c r="C20" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E20" s="92">
         <v>2.5000000000000001E-5</v>
@@ -6878,8 +7161,8 @@
         <v>48.15</v>
       </c>
       <c r="J20" s="104">
-        <f>J12*0.15</f>
-        <v>7.2224999999999993</v>
+        <f>J12*0.05</f>
+        <v>2.4075000000000002</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
@@ -6930,16 +7213,16 @@
         <v>84</v>
       </c>
       <c r="AD20" s="98">
-        <v>72</v>
+        <v>34.5</v>
       </c>
       <c r="AE20" s="98">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="AF20" s="98">
-        <v>136</v>
+        <v>80.5</v>
       </c>
       <c r="AG20" s="98">
-        <v>177.5</v>
+        <v>109</v>
       </c>
       <c r="AH20" s="98">
         <v>1</v>
@@ -6976,11 +7259,11 @@
       </c>
       <c r="AS20" s="100">
         <f>10068.2*J20*POWER(10,-6)</f>
-        <v>7.2717574499999993E-2</v>
+        <v>2.4239191500000003E-2</v>
       </c>
       <c r="AT20" s="55">
         <f t="shared" si="17"/>
-        <v>7.2665363244999996</v>
+        <v>7.2180579414999997</v>
       </c>
       <c r="AU20" s="101">
         <f>AH20*H20</f>
@@ -6992,10 +7275,10 @@
       </c>
       <c r="AW20" s="101">
         <f>H20*AT20</f>
-        <v>1.816634081125E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.8045144853750001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -7047,7 +7330,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>81</v>
@@ -7087,7 +7370,7 @@
       </c>
       <c r="N22" s="98" t="str">
         <f t="shared" ref="N22:N29" si="28">B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O22" s="98" t="str">
         <f t="shared" ref="O22:O29" si="29">D22</f>
@@ -7205,7 +7488,7 @@
       </c>
       <c r="B23" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>86</v>
@@ -7247,7 +7530,7 @@
       </c>
       <c r="N23" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O23" s="98" t="str">
         <f t="shared" si="29"/>
@@ -7308,7 +7591,7 @@
         <v>84</v>
       </c>
       <c r="AH23" s="54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" s="54">
         <v>2</v>
@@ -7335,11 +7618,11 @@
       </c>
       <c r="AQ23" s="55">
         <f t="shared" ref="AQ23:AQ29" si="33">AH23*3+0.25*AI23</f>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AR23" s="55">
         <f t="shared" ref="AR23:AR29" si="34">SUM(AO23:AQ23)/4</f>
-        <v>2.5462775</v>
+        <v>3.2962775</v>
       </c>
       <c r="AS23" s="100">
         <f>10068.2*J23*POWER(10,-6)*10</f>
@@ -7347,11 +7630,11 @@
       </c>
       <c r="AT23" s="55">
         <f t="shared" si="30"/>
-        <v>12.737629783999999</v>
+        <v>16.487629783999999</v>
       </c>
       <c r="AU23" s="101">
         <f t="shared" ref="AU23:AU29" si="35">AH23*H23</f>
-        <v>3.7999999999999996E-7</v>
+        <v>5.6999999999999994E-7</v>
       </c>
       <c r="AV23" s="101">
         <f t="shared" ref="AV23:AV29" si="36">H23*AI23</f>
@@ -7359,7 +7642,7 @@
       </c>
       <c r="AW23" s="101">
         <f t="shared" ref="AW23" si="37">H23*AT23</f>
-        <v>2.4201496589599995E-6</v>
+        <v>3.1326496589599994E-6</v>
       </c>
     </row>
     <row r="24" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
@@ -7368,13 +7651,13 @@
       </c>
       <c r="B24" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C24" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>91</v>
       </c>
       <c r="E24" s="102">
         <f>E22</f>
@@ -7399,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="106">
         <v>0.35</v>
@@ -7410,7 +7693,7 @@
       </c>
       <c r="N24" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O24" s="98" t="str">
         <f t="shared" si="29"/>
@@ -7527,17 +7810,17 @@
     </row>
     <row r="25" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E25" s="92">
         <v>1.0000000000000001E-5</v>
@@ -7562,7 +7845,7 @@
         <v>14.444999999999999</v>
       </c>
       <c r="K25" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L25" s="106">
         <v>45390</v>
@@ -7573,7 +7856,7 @@
       </c>
       <c r="N25" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O25" s="98" t="str">
         <f t="shared" si="29"/>
@@ -7690,17 +7973,17 @@
     </row>
     <row r="26" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="102">
         <f>E25</f>
@@ -7725,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L26" s="106">
         <v>3</v>
@@ -7736,7 +8019,7 @@
       </c>
       <c r="N26" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O26" s="98" t="str">
         <f t="shared" si="29"/>
@@ -7853,17 +8136,17 @@
     </row>
     <row r="27" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="102">
         <f>E26</f>
@@ -7888,7 +8171,7 @@
         <v>2.1667499999999995</v>
       </c>
       <c r="K27" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L27" s="109">
         <v>12</v>
@@ -7899,7 +8182,7 @@
       </c>
       <c r="N27" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O27" s="98" t="str">
         <f t="shared" si="29"/>
@@ -8016,17 +8299,17 @@
     </row>
     <row r="28" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="102">
         <f>E26</f>
@@ -8059,7 +8342,7 @@
       </c>
       <c r="N28" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O28" s="98" t="str">
         <f t="shared" si="29"/>
@@ -8174,19 +8457,19 @@
         <v>6.4610391647200007E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:49" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="102">
         <f>E26</f>
@@ -8218,7 +8501,7 @@
       </c>
       <c r="N29" s="98" t="str">
         <f t="shared" si="28"/>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="O29" s="98" t="str">
         <f t="shared" si="29"/>
@@ -8335,17 +8618,17 @@
     </row>
     <row r="30" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B30" s="89" t="str">
         <f>B22</f>
-        <v>Отстойник ОГЖФ - 25-1, per. № 1</v>
+        <v>Отстойник 1 - 100 -1,0 -2 -Т-И, рег.№15</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30" s="92">
         <v>2.5000000000000001E-5</v>
@@ -8365,8 +8648,8 @@
         <v>96.3</v>
       </c>
       <c r="J30" s="104">
-        <f>J22*0.15</f>
-        <v>14.444999999999999</v>
+        <f>J22*0.03</f>
+        <v>2.8889999999999998</v>
       </c>
       <c r="K30" s="89"/>
       <c r="L30" s="89"/>
@@ -8417,16 +8700,16 @@
         <v>84</v>
       </c>
       <c r="AD30" s="98">
-        <v>106.5</v>
+        <v>39.5</v>
       </c>
       <c r="AE30" s="98">
-        <v>156</v>
+        <v>70.5</v>
       </c>
       <c r="AF30" s="98">
-        <v>186.5</v>
+        <v>88</v>
       </c>
       <c r="AG30" s="98">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="AH30" s="98">
         <v>1</v>
@@ -8463,11 +8746,11 @@
       </c>
       <c r="AS30" s="100">
         <f>10068.2*J30*POWER(10,-6)</f>
-        <v>0.14543514899999999</v>
+        <v>2.9087029800000001E-2</v>
       </c>
       <c r="AT30" s="55">
         <f t="shared" si="30"/>
-        <v>9.1268226489999993</v>
+        <v>9.0104745297999997</v>
       </c>
       <c r="AU30" s="101">
         <f>AH30*H30</f>
@@ -8479,10 +8762,10 @@
       </c>
       <c r="AW30" s="101">
         <f>H30*AT30</f>
-        <v>2.28170566225E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2526186324500002E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -8858,10 +9141,10 @@
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C34" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="D34" s="91" t="s">
-        <v>91</v>
       </c>
       <c r="E34" s="102">
         <f>E32</f>
@@ -8886,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L34" s="106">
         <v>3</v>
@@ -9014,17 +9297,17 @@
     </row>
     <row r="35" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="89" t="str">
         <f>B32</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C35" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D35" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E35" s="92">
         <v>1.0000000000000001E-5</v>
@@ -9049,7 +9332,7 @@
         <v>14.444999999999999</v>
       </c>
       <c r="K35" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L35" s="106">
         <v>45390</v>
@@ -9177,17 +9460,17 @@
     </row>
     <row r="36" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="89" t="str">
         <f>B32</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="102">
         <f>E35</f>
@@ -9212,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L36" s="106">
         <v>3</v>
@@ -9340,17 +9623,17 @@
     </row>
     <row r="37" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" s="89" t="str">
         <f>B32</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="102">
         <f>E36</f>
@@ -9375,7 +9658,7 @@
         <v>2.1667499999999995</v>
       </c>
       <c r="K37" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L37" s="109">
         <v>12</v>
@@ -9503,17 +9786,17 @@
     </row>
     <row r="38" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="89" t="str">
         <f>B32</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E38" s="102">
         <f>E36</f>
@@ -9661,19 +9944,19 @@
         <v>6.4610391647200007E-7</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" s="89" t="str">
         <f>B32</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="102">
         <f>E36</f>
@@ -9822,17 +10105,17 @@
     </row>
     <row r="40" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B40" s="89" t="str">
         <f>B32</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C40" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" s="92">
         <v>2.5000000000000001E-5</v>
@@ -9852,8 +10135,8 @@
         <v>96.3</v>
       </c>
       <c r="J40" s="104">
-        <f>J32*0.15</f>
-        <v>14.444999999999999</v>
+        <f>J32*0.03</f>
+        <v>2.8889999999999998</v>
       </c>
       <c r="K40" s="89"/>
       <c r="L40" s="89"/>
@@ -9904,16 +10187,16 @@
         <v>84</v>
       </c>
       <c r="AD40" s="98">
-        <v>106.5</v>
+        <v>39.5</v>
       </c>
       <c r="AE40" s="98">
-        <v>156</v>
+        <v>70.5</v>
       </c>
       <c r="AF40" s="98">
-        <v>186.5</v>
+        <v>88</v>
       </c>
       <c r="AG40" s="98">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="AH40" s="98">
         <v>1</v>
@@ -9950,11 +10233,11 @@
       </c>
       <c r="AS40" s="100">
         <f>10068.2*J40*POWER(10,-6)</f>
-        <v>0.14543514899999999</v>
+        <v>2.9087029800000001E-2</v>
       </c>
       <c r="AT40" s="55">
         <f t="shared" si="43"/>
-        <v>9.1268226489999993</v>
+        <v>9.0104745297999997</v>
       </c>
       <c r="AU40" s="101">
         <f>AH40*H40</f>
@@ -9966,10 +10249,10 @@
       </c>
       <c r="AW40" s="101">
         <f>H40*AT40</f>
-        <v>2.28170566225E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2526186324500002E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -10345,10 +10628,10 @@
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C44" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>91</v>
       </c>
       <c r="E44" s="102">
         <f>E42</f>
@@ -10373,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L44" s="106">
         <v>2</v>
@@ -10501,17 +10784,17 @@
     </row>
     <row r="45" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="89" t="str">
         <f>B42</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C45" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D45" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E45" s="92">
         <v>1.0000000000000001E-5</v>
@@ -10536,7 +10819,7 @@
         <v>14.444999999999999</v>
       </c>
       <c r="K45" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L45" s="106">
         <v>45390</v>
@@ -10664,17 +10947,17 @@
     </row>
     <row r="46" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="89" t="str">
         <f>B42</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="102">
         <f>E45</f>
@@ -10699,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L46" s="106">
         <v>3</v>
@@ -10827,17 +11110,17 @@
     </row>
     <row r="47" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="89" t="str">
         <f>B42</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47" s="102">
         <f>E46</f>
@@ -10862,7 +11145,7 @@
         <v>2.1667499999999995</v>
       </c>
       <c r="K47" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L47" s="109">
         <v>12</v>
@@ -10990,17 +11273,17 @@
     </row>
     <row r="48" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="89" t="str">
         <f>B42</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="102">
         <f>E46</f>
@@ -11148,19 +11431,19 @@
         <v>6.4610391647200007E-7</v>
       </c>
     </row>
-    <row r="49" spans="1:49" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="89" t="str">
         <f>B42</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" s="102">
         <f>E46</f>
@@ -11309,17 +11592,17 @@
     </row>
     <row r="50" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" s="89" t="str">
         <f>B42</f>
         <v>Аппарат 1 - 100- 1,0- 1Ти, рег.№4, Е-1</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D50" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E50" s="92">
         <v>2.5000000000000001E-5</v>
@@ -11339,8 +11622,8 @@
         <v>96.3</v>
       </c>
       <c r="J50" s="104">
-        <f>J42*0.3</f>
-        <v>28.889999999999997</v>
+        <f>J42*0.03</f>
+        <v>2.8889999999999998</v>
       </c>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
@@ -11391,16 +11674,16 @@
         <v>84</v>
       </c>
       <c r="AD50" s="98">
-        <v>153</v>
+        <v>39.5</v>
       </c>
       <c r="AE50" s="98">
-        <v>214.5</v>
+        <v>70.5</v>
       </c>
       <c r="AF50" s="98">
-        <v>253.5</v>
+        <v>88</v>
       </c>
       <c r="AG50" s="98">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="AH50" s="98">
         <v>1</v>
@@ -11437,11 +11720,11 @@
       </c>
       <c r="AS50" s="100">
         <f>10068.2*J50*POWER(10,-6)</f>
-        <v>0.29087029799999997</v>
+        <v>2.9087029800000001E-2</v>
       </c>
       <c r="AT50" s="55">
         <f t="shared" si="56"/>
-        <v>9.2722577980000001</v>
+        <v>9.0104745297999997</v>
       </c>
       <c r="AU50" s="101">
         <f>AH50*H50</f>
@@ -11453,10 +11736,10 @@
       </c>
       <c r="AW50" s="101">
         <f>H50*AT50</f>
-        <v>2.3180644495E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2526186324500002E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -11551,7 +11834,7 @@
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="O52" s="98" t="str">
-        <f t="shared" ref="O52:O60" si="68">D52</f>
+        <f t="shared" ref="O52:O59" si="68">D52</f>
         <v>Полное-пожар</v>
       </c>
       <c r="P52" s="98">
@@ -11832,10 +12115,10 @@
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C54" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="D54" s="91" t="s">
-        <v>91</v>
       </c>
       <c r="E54" s="102">
         <f>E52</f>
@@ -11860,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="106">
         <v>2</v>
@@ -11988,17 +12271,17 @@
     </row>
     <row r="55" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="89" t="str">
         <f>B52</f>
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C55" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D55" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E55" s="92">
         <v>1.0000000000000001E-5</v>
@@ -12023,7 +12306,7 @@
         <v>1.284</v>
       </c>
       <c r="K55" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L55" s="106">
         <v>45390</v>
@@ -12151,17 +12434,17 @@
     </row>
     <row r="56" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="89" t="str">
         <f>B52</f>
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" s="102">
         <f>E55</f>
@@ -12186,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L56" s="106">
         <v>3</v>
@@ -12314,17 +12597,17 @@
     </row>
     <row r="57" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" s="89" t="str">
         <f>B52</f>
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D57" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="102">
         <f>E56</f>
@@ -12349,7 +12632,7 @@
         <v>0.19259999999999999</v>
       </c>
       <c r="K57" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L57" s="109">
         <v>12</v>
@@ -12477,17 +12760,17 @@
     </row>
     <row r="58" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B58" s="89" t="str">
         <f>B52</f>
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E58" s="102">
         <f>E56</f>
@@ -12635,19 +12918,19 @@
         <v>5.0449090368640006E-7</v>
       </c>
     </row>
-    <row r="59" spans="1:49" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" s="89" t="str">
         <f>B52</f>
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59" s="102">
         <f>E56</f>
@@ -12796,17 +13079,17 @@
     </row>
     <row r="60" spans="1:49" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B60" s="89" t="str">
         <f>B52</f>
         <v>Сепаратор НГС 1 -1,0 - 2000-1, рег.№6</v>
       </c>
       <c r="C60" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D60" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E60" s="92">
         <v>2.5000000000000001E-5</v>
@@ -12951,7 +13234,7 @@
         <v>1.4374737844000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -13003,7 +13286,7 @@
         <v>80</v>
       </c>
       <c r="B62" s="90" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>81</v>
@@ -13043,7 +13326,7 @@
       </c>
       <c r="N62" s="98" t="str">
         <f t="shared" ref="N62:N69" si="81">B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O62" s="98" t="str">
         <f t="shared" ref="O62:O69" si="82">D62</f>
@@ -13161,7 +13444,7 @@
       </c>
       <c r="B63" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>86</v>
@@ -13203,7 +13486,7 @@
       </c>
       <c r="N63" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O63" s="98" t="str">
         <f t="shared" si="82"/>
@@ -13324,13 +13607,13 @@
       </c>
       <c r="B64" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="91" t="s">
-        <v>91</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+      </c>
+      <c r="C64" s="165" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="164" t="s">
+        <v>247</v>
       </c>
       <c r="E64" s="102">
         <f>E62</f>
@@ -13355,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="106">
         <v>2</v>
@@ -13366,11 +13649,11 @@
       </c>
       <c r="N64" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O64" s="98" t="str">
         <f t="shared" si="82"/>
-        <v>Полное-ликвидация</v>
+        <v>Полноетокси</v>
       </c>
       <c r="P64" s="98" t="s">
         <v>84</v>
@@ -13408,11 +13691,11 @@
       <c r="AA64" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="AB64" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC64" s="98" t="s">
-        <v>84</v>
+      <c r="AB64" s="98">
+        <v>6</v>
+      </c>
+      <c r="AC64" s="98">
+        <v>38</v>
       </c>
       <c r="AD64" s="98" t="s">
         <v>84</v>
@@ -13427,10 +13710,10 @@
         <v>84</v>
       </c>
       <c r="AH64" s="98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="98">
         <f>AJ62</f>
@@ -13454,11 +13737,11 @@
       </c>
       <c r="AQ64" s="55">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AR64" s="55">
         <f t="shared" si="87"/>
-        <v>0.207504825</v>
+        <v>1.020004825</v>
       </c>
       <c r="AS64" s="100">
         <f>1333*J62*POWER(10,-6)</f>
@@ -13466,34 +13749,34 @@
       </c>
       <c r="AT64" s="55">
         <f t="shared" si="83"/>
-        <v>1.0397768949999999</v>
+        <v>5.1022768950000001</v>
       </c>
       <c r="AU64" s="101">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>7.5999999999999992E-7</v>
       </c>
       <c r="AV64" s="101">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>7.5999999999999992E-7</v>
       </c>
       <c r="AW64" s="101">
         <f>H64*AT64</f>
-        <v>7.9023044019999989E-7</v>
+        <v>3.8777304401999993E-6</v>
       </c>
     </row>
     <row r="65" spans="1:54" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C65" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="91" t="s">
         <v>94</v>
-      </c>
-      <c r="D65" s="91" t="s">
-        <v>95</v>
       </c>
       <c r="E65" s="92">
         <v>1.0000000000000001E-5</v>
@@ -13518,7 +13801,7 @@
         <v>0.2535</v>
       </c>
       <c r="K65" s="105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L65" s="106">
         <v>45390</v>
@@ -13529,7 +13812,7 @@
       </c>
       <c r="N65" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O65" s="98" t="str">
         <f t="shared" si="82"/>
@@ -13646,17 +13929,17 @@
     </row>
     <row r="66" spans="1:54" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D66" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E66" s="102">
         <f>E65</f>
@@ -13681,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L66" s="106">
         <v>3</v>
@@ -13692,7 +13975,7 @@
       </c>
       <c r="N66" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O66" s="98" t="str">
         <f t="shared" si="82"/>
@@ -13809,17 +14092,17 @@
     </row>
     <row r="67" spans="1:54" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="102">
         <f>E66</f>
@@ -13844,7 +14127,7 @@
         <v>3.8024999999999996E-2</v>
       </c>
       <c r="K67" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L67" s="109">
         <v>12</v>
@@ -13855,7 +14138,7 @@
       </c>
       <c r="N67" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O67" s="98" t="str">
         <f t="shared" si="82"/>
@@ -13972,17 +14255,17 @@
     </row>
     <row r="68" spans="1:54" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B68" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="102">
         <f>E66</f>
@@ -14015,7 +14298,7 @@
       </c>
       <c r="N68" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O68" s="98" t="str">
         <f t="shared" si="82"/>
@@ -14130,19 +14413,19 @@
         <v>4.9340267257360009E-7</v>
       </c>
     </row>
-    <row r="69" spans="1:54" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:54" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B69" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D69" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="102">
         <f>E66</f>
@@ -14174,7 +14457,7 @@
       </c>
       <c r="N69" s="98" t="str">
         <f t="shared" si="81"/>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O69" s="98" t="str">
         <f t="shared" si="82"/>
@@ -14291,17 +14574,17 @@
     </row>
     <row r="70" spans="1:54" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B70" s="89" t="str">
         <f>B62</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="C70" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D70" s="89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E70" s="92">
         <v>2.5000000000000001E-5</v>
@@ -14332,7 +14615,7 @@
       </c>
       <c r="N70" s="98" t="str">
         <f t="shared" ref="N70" si="93">B70</f>
-        <v>Г азосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
+        <v>Газосепаратор ГС 2-1,0 -1200 - IT, per. № 7, рег.№6</v>
       </c>
       <c r="O70" s="98" t="str">
         <f t="shared" ref="O70" si="94">D70</f>
@@ -14446,7 +14729,7 @@
         <v>1.3702254826500001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -14498,7 +14781,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C72" s="66" t="s">
         <v>81</v>
@@ -14821,10 +15104,10 @@
         <v>Емкость подземная ЕП 8 -2000- 1 -2 , зав. №64, 65</v>
       </c>
       <c r="C74" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="67" t="s">
         <v>90</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>91</v>
       </c>
       <c r="E74" s="80">
         <f>E72</f>
@@ -14848,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L74" s="84">
         <v>0</v>
@@ -14986,7 +15269,7 @@
       <c r="I75" s="82"/>
       <c r="J75" s="71"/>
       <c r="K75" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L75" s="84">
         <v>45390</v>
@@ -15013,7 +15296,7 @@
       <c r="I76" s="82"/>
       <c r="J76" s="71"/>
       <c r="K76" s="83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L76" s="84">
         <v>3</v>
@@ -15028,7 +15311,7 @@
       <c r="AV76" s="79"/>
       <c r="AW76" s="79"/>
     </row>
-    <row r="77" spans="1:54" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:54" s="74" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="64"/>
       <c r="B77" s="64"/>
       <c r="C77" s="66"/>
@@ -15040,7 +15323,7 @@
       <c r="I77" s="82"/>
       <c r="J77" s="71"/>
       <c r="K77" s="86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L77" s="113">
         <v>14</v>
@@ -15223,7 +15506,7 @@
       <c r="BA80" s="77"/>
       <c r="BB80" s="77"/>
     </row>
-    <row r="81" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="47"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
@@ -15599,10 +15882,10 @@
         <v>Емкость подземная ЕП 8 -2000 - 1 - 2, зав. № 65</v>
       </c>
       <c r="C84" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="67" t="s">
         <v>90</v>
-      </c>
-      <c r="D84" s="67" t="s">
-        <v>91</v>
       </c>
       <c r="E84" s="80">
         <f>E82</f>
@@ -15627,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="84">
         <v>0</v>
@@ -15765,7 +16048,7 @@
       <c r="I85" s="82"/>
       <c r="J85" s="71"/>
       <c r="K85" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L85" s="84">
         <v>45390</v>
@@ -15792,7 +16075,7 @@
       <c r="I86" s="82"/>
       <c r="J86" s="71"/>
       <c r="K86" s="83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L86" s="84">
         <v>3</v>
@@ -15807,7 +16090,7 @@
       <c r="AV86" s="79"/>
       <c r="AW86" s="79"/>
     </row>
-    <row r="87" spans="1:54" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:54" s="74" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="64"/>
       <c r="B87" s="64"/>
       <c r="C87" s="66"/>
@@ -15819,7 +16102,7 @@
       <c r="I87" s="82"/>
       <c r="J87" s="71"/>
       <c r="K87" s="86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L87" s="113">
         <v>14</v>
@@ -15845,8 +16128,8 @@
       <c r="H88" s="69"/>
       <c r="I88" s="82"/>
       <c r="J88" s="71"/>
-      <c r="K88" s="152"/>
-      <c r="L88" s="153"/>
+      <c r="K88" s="140"/>
+      <c r="L88" s="141"/>
       <c r="AO88" s="77"/>
       <c r="AP88" s="77"/>
       <c r="AQ88" s="78"/>
@@ -15969,7 +16252,7 @@
       <c r="BA90" s="77"/>
       <c r="BB90" s="77"/>
     </row>
-    <row r="91" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="47"/>
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
@@ -16345,10 +16628,10 @@
         <v>Емкость подземная ЕП 12,5 -2000-1 -2 , (КЕ-3)</v>
       </c>
       <c r="C94" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="67" t="s">
         <v>90</v>
-      </c>
-      <c r="D94" s="67" t="s">
-        <v>91</v>
       </c>
       <c r="E94" s="80">
         <f>E92</f>
@@ -16373,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L94" s="84">
         <v>0</v>
@@ -16511,7 +16794,7 @@
       <c r="I95" s="82"/>
       <c r="J95" s="71"/>
       <c r="K95" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L95" s="84">
         <v>45390</v>
@@ -16538,7 +16821,7 @@
       <c r="I96" s="82"/>
       <c r="J96" s="71"/>
       <c r="K96" s="83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L96" s="84">
         <v>3</v>
@@ -16553,7 +16836,7 @@
       <c r="AV96" s="79"/>
       <c r="AW96" s="79"/>
     </row>
-    <row r="97" spans="1:54" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:54" s="74" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="64"/>
       <c r="B97" s="64"/>
       <c r="C97" s="66"/>
@@ -16565,7 +16848,7 @@
       <c r="I97" s="82"/>
       <c r="J97" s="71"/>
       <c r="K97" s="86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L97" s="113">
         <v>14</v>
@@ -16591,8 +16874,8 @@
       <c r="H98" s="69"/>
       <c r="I98" s="82"/>
       <c r="J98" s="71"/>
-      <c r="K98" s="152"/>
-      <c r="L98" s="153"/>
+      <c r="K98" s="140"/>
+      <c r="L98" s="141"/>
       <c r="AO98" s="77"/>
       <c r="AP98" s="77"/>
       <c r="AQ98" s="78"/>
@@ -16715,7 +16998,7 @@
       <c r="BA100" s="77"/>
       <c r="BB100" s="77"/>
     </row>
-    <row r="101" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="47"/>
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
@@ -16762,18 +17045,18 @@
       <c r="AV101" s="48"/>
       <c r="AW101" s="48"/>
     </row>
-    <row r="102" spans="1:54" s="124" customFormat="1" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:54" s="124" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="114" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C102" s="116" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E102" s="118">
         <v>1.0000000000000001E-5</v>
@@ -16920,7 +17203,7 @@
         <v>1.5445482336000003E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:54" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:54" s="124" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="114" t="s">
         <v>85</v>
       </c>
@@ -16930,10 +17213,10 @@
 зав. № 335,655, 828</v>
       </c>
       <c r="C103" s="116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E103" s="130">
         <f>E102</f>
@@ -17096,10 +17379,10 @@
 зав. № 335,655, 828</v>
       </c>
       <c r="C104" s="116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104" s="130">
         <f>E102</f>
@@ -17124,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="123">
         <v>1</v>
@@ -17253,7 +17536,7 @@
     </row>
     <row r="105" spans="1:54" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B105" s="114" t="str">
         <f>B102</f>
@@ -17261,10 +17544,10 @@
 зав. № 335,655, 828</v>
       </c>
       <c r="C105" s="116" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E105" s="130">
         <f>E103</f>
@@ -17290,7 +17573,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="K105" s="132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L105" s="133">
         <v>45390</v>
@@ -17419,7 +17702,7 @@
     </row>
     <row r="106" spans="1:54" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="114" t="str">
         <f>B102</f>
@@ -17427,10 +17710,10 @@
 зав. № 335,655, 828</v>
       </c>
       <c r="C106" s="116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E106" s="130">
         <f t="shared" ref="E106:E107" si="138">E104</f>
@@ -17456,7 +17739,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="K106" s="132" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -17583,9 +17866,9 @@
         <v>5.934646143000002E-7</v>
       </c>
     </row>
-    <row r="107" spans="1:54" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:54" s="124" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="114" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B107" s="114" t="str">
         <f>B102</f>
@@ -17593,10 +17876,10 @@
 зав. № 335,655, 828</v>
       </c>
       <c r="C107" s="116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E107" s="130">
         <f t="shared" si="138"/>
@@ -17621,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L107" s="134">
         <v>11</v>
@@ -17749,18 +18032,18 @@
       </c>
     </row>
     <row r="108" spans="1:54" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="154"/>
-      <c r="B108" s="154"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="157"/>
-      <c r="F108" s="158"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="159"/>
-      <c r="I108" s="160"/>
-      <c r="J108" s="154"/>
-      <c r="K108" s="154"/>
-      <c r="L108" s="154"/>
+      <c r="A108" s="142"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="144"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="146"/>
+      <c r="G108" s="142"/>
+      <c r="H108" s="147"/>
+      <c r="I108" s="148"/>
+      <c r="J108" s="142"/>
+      <c r="K108" s="142"/>
+      <c r="L108" s="142"/>
       <c r="AO108" s="127"/>
       <c r="AP108" s="127"/>
       <c r="AQ108" s="128"/>
@@ -17815,7 +18098,7 @@
       <c r="AV110" s="129"/>
       <c r="AW110" s="129"/>
     </row>
-    <row r="111" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="47"/>
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
@@ -17862,7 +18145,7 @@
       <c r="AV111" s="48"/>
       <c r="AW111" s="48"/>
     </row>
-    <row r="112" spans="1:54" s="124" customFormat="1" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:54" s="124" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="114" t="s">
         <v>80</v>
       </c>
@@ -17870,10 +18153,10 @@
         <v>75</v>
       </c>
       <c r="C112" s="116" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E112" s="118">
         <v>1.0000000000000001E-5</v>
@@ -18020,7 +18303,7 @@
         <v>1.0507469896000002E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:49" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:49" s="124" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="114" t="s">
         <v>85</v>
       </c>
@@ -18030,10 +18313,10 @@
 зав. № 196, 74</v>
       </c>
       <c r="C113" s="116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E113" s="130">
         <f>E112</f>
@@ -18194,10 +18477,10 @@
 зав. № 196, 74</v>
       </c>
       <c r="C114" s="116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E114" s="130">
         <f>E112</f>
@@ -18221,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L114" s="123">
         <v>1.3</v>
@@ -18350,7 +18633,7 @@
     </row>
     <row r="115" spans="1:49" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B115" s="114" t="str">
         <f>B112</f>
@@ -18358,10 +18641,10 @@
 зав. № 196, 74</v>
       </c>
       <c r="C115" s="116" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E115" s="130">
         <f>E113</f>
@@ -18386,7 +18669,7 @@
         <v>0.50849999999999995</v>
       </c>
       <c r="K115" s="132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L115" s="133">
         <v>45390</v>
@@ -18515,7 +18798,7 @@
     </row>
     <row r="116" spans="1:49" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="114" t="str">
         <f>B112</f>
@@ -18523,10 +18806,10 @@
 зав. № 196, 74</v>
       </c>
       <c r="C116" s="116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E116" s="130">
         <f t="shared" ref="E116:E117" si="151">E114</f>
@@ -18551,7 +18834,7 @@
         <v>0.50849999999999995</v>
       </c>
       <c r="K116" s="132" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L116" s="133">
         <v>3</v>
@@ -18678,9 +18961,9 @@
         <v>4.3712987355000011E-7</v>
       </c>
     </row>
-    <row r="117" spans="1:49" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:49" s="124" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="114" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="B117" s="114" t="str">
         <f>B112</f>
@@ -18688,10 +18971,10 @@
 зав. № 196, 74</v>
       </c>
       <c r="C117" s="116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E117" s="130">
         <f t="shared" si="151"/>
@@ -18715,14 +18998,14 @@
         <v>0</v>
       </c>
       <c r="K117" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L117" s="134">
         <v>11</v>
       </c>
       <c r="M117" s="124" t="str">
         <f t="shared" si="140"/>
-        <v>С6</v>
+        <v>С6+A76A56:A2:A117</v>
       </c>
       <c r="N117" s="124" t="str">
         <f t="shared" si="141"/>
@@ -18843,18 +19126,18 @@
       </c>
     </row>
     <row r="118" spans="1:49" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="154"/>
-      <c r="B118" s="154"/>
-      <c r="C118" s="155"/>
-      <c r="D118" s="156"/>
-      <c r="E118" s="157"/>
-      <c r="F118" s="158"/>
-      <c r="G118" s="154"/>
-      <c r="H118" s="159"/>
-      <c r="I118" s="160"/>
-      <c r="J118" s="154"/>
-      <c r="K118" s="154"/>
-      <c r="L118" s="154"/>
+      <c r="A118" s="142"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="144"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="146"/>
+      <c r="G118" s="142"/>
+      <c r="H118" s="147"/>
+      <c r="I118" s="148"/>
+      <c r="J118" s="142"/>
+      <c r="K118" s="142"/>
+      <c r="L118" s="142"/>
       <c r="AO118" s="127"/>
       <c r="AP118" s="127"/>
       <c r="AQ118" s="128"/>
@@ -18909,7 +19192,7 @@
       <c r="AV120" s="129"/>
       <c r="AW120" s="129"/>
     </row>
-    <row r="121" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="47"/>
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
@@ -18956,7 +19239,7 @@
       <c r="AV121" s="48"/>
       <c r="AW121" s="48"/>
     </row>
-    <row r="122" spans="1:49" s="124" customFormat="1" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:49" s="124" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="114" t="s">
         <v>80</v>
       </c>
@@ -18964,10 +19247,10 @@
         <v>77</v>
       </c>
       <c r="C122" s="116" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E122" s="118">
         <v>1.0000000000000001E-5</v>
@@ -19114,7 +19397,7 @@
         <v>1.0296988224000001E-5</v>
       </c>
     </row>
-    <row r="123" spans="1:49" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:49" s="124" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="114" t="s">
         <v>85</v>
       </c>
@@ -19124,10 +19407,10 @@
 2), зав. № 11ц26, 8С1</v>
       </c>
       <c r="C123" s="116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E123" s="130">
         <f>E122</f>
@@ -19288,10 +19571,10 @@
 2), зав. № 11ц26, 8С1</v>
       </c>
       <c r="C124" s="116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E124" s="130">
         <f>E122</f>
@@ -19315,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L124" s="123">
         <v>1</v>
@@ -19444,7 +19727,7 @@
     </row>
     <row r="125" spans="1:49" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" s="114" t="str">
         <f>B122</f>
@@ -19452,10 +19735,10 @@
 2), зав. № 11ц26, 8С1</v>
       </c>
       <c r="C125" s="116" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E125" s="130">
         <f>E123</f>
@@ -19480,7 +19763,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="K125" s="132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L125" s="133">
         <v>45390</v>
@@ -19609,7 +19892,7 @@
     </row>
     <row r="126" spans="1:49" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="114" t="str">
         <f>B122</f>
@@ -19617,10 +19900,10 @@
 2), зав. № 11ц26, 8С1</v>
       </c>
       <c r="C126" s="116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E126" s="130">
         <f t="shared" ref="E126:E127" si="164">E124</f>
@@ -19645,7 +19928,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="K126" s="132" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L126" s="133">
         <v>3</v>
@@ -19772,9 +20055,9 @@
         <v>3.956430762000001E-7</v>
       </c>
     </row>
-    <row r="127" spans="1:49" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:49" s="124" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="114" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B127" s="114" t="str">
         <f>B122</f>
@@ -19782,10 +20065,10 @@
 2), зав. № 11ц26, 8С1</v>
       </c>
       <c r="C127" s="116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E127" s="130">
         <f t="shared" si="164"/>
@@ -19809,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L127" s="134">
         <v>11</v>
@@ -19937,18 +20220,18 @@
       </c>
     </row>
     <row r="128" spans="1:49" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="154"/>
-      <c r="B128" s="154"/>
-      <c r="C128" s="155"/>
-      <c r="D128" s="156"/>
-      <c r="E128" s="157"/>
-      <c r="F128" s="158"/>
-      <c r="G128" s="154"/>
-      <c r="H128" s="159"/>
-      <c r="I128" s="160"/>
-      <c r="J128" s="154"/>
-      <c r="K128" s="154"/>
-      <c r="L128" s="154"/>
+      <c r="A128" s="142"/>
+      <c r="B128" s="142"/>
+      <c r="C128" s="143"/>
+      <c r="D128" s="144"/>
+      <c r="E128" s="145"/>
+      <c r="F128" s="146"/>
+      <c r="G128" s="142"/>
+      <c r="H128" s="147"/>
+      <c r="I128" s="148"/>
+      <c r="J128" s="142"/>
+      <c r="K128" s="142"/>
+      <c r="L128" s="142"/>
       <c r="AO128" s="127"/>
       <c r="AP128" s="127"/>
       <c r="AQ128" s="128"/>
@@ -20003,8 +20286,2029 @@
       <c r="AV130" s="129"/>
       <c r="AW130" s="129"/>
     </row>
+    <row r="132" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H132" s="167">
+        <f>MAX(H2:H127)</f>
+        <v>2.5650000000000003E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU133" s="166">
+        <f>SUM(AU2:AU127)</f>
+        <v>2.0305500000000008E-4</v>
+      </c>
+      <c r="AV133" s="166">
+        <f>SUM(AV2:AV127)</f>
+        <v>4.2270500000000016E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="W134" s="2">
+        <f>MAX(P2:AG127)</f>
+        <v>136.1</v>
+      </c>
+      <c r="AU134" s="166">
+        <f>AU133/30</f>
+        <v>6.768500000000003E-6</v>
+      </c>
+      <c r="AV134" s="166">
+        <f>AV133/30</f>
+        <v>1.4090166666666673E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="163" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="163" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="163" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138" s="163" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" s="163" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140" s="163" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B142" s="163" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" s="163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" s="163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" s="163" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147" s="163" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="163" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149" s="163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="163" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" s="163" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="163" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="163" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" s="163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B156" s="163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B157" s="163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B158" s="163" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="163" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B161" s="163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" s="163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163" s="163" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B164" s="163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" s="163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B166" s="163" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B167" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169" s="163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B170" s="163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B172" s="163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B173" s="163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B174" s="163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B175" s="163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B176" s="163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" s="163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B178" s="163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B179" s="163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B180" s="163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" s="163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B182" s="163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" s="163" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B184" s="163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B185" s="163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B186" s="163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B187" s="163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B188" s="163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="163" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B190" s="163" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" s="163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B192" s="163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B193" s="163" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B194" s="163" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B195" s="163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B196" s="163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B197" s="163" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B198" s="163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B199" s="163" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B200" s="163" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" s="163" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B202" s="163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B203" s="163" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B204" s="163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205" s="163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" s="163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B207" s="163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B208" s="163" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B209" s="163" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B210" s="163" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B211" s="163" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B212" s="163" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B213" s="163" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B214" s="163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B215" s="163" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B216" s="163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B217" s="163" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="B218" s="163" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B219" s="163" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B220" s="163" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B221" s="163" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B222" s="163" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D2">
+        <v>6.4161844800000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D3">
+        <v>9.9532420500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D4">
+        <v>1.1392237000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D5">
+        <v>0.367048547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D6">
+        <v>0.44231699999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D7">
+        <v>0.34553602580000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D8">
+        <v>0.34553602580000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D9">
+        <v>1.2741908250000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D10">
+        <v>6.2653628440000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D11">
+        <v>7.6786025799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D12">
+        <v>10.949456941999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D13">
+        <v>1.274190825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D14">
+        <v>0.42234360575000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D15">
+        <v>0.59169429249999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D16">
+        <v>0.37394043305000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D17">
+        <v>0.37394043305000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D18">
+        <v>1.5778668562500001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D19">
+        <v>7.2665363244999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D20">
+        <v>9.9509551599999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D21">
+        <v>16.487629783999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D22">
+        <v>1.5171316500000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D23">
+        <v>0.52187471149999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D24">
+        <v>0.85990958500000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D25">
+        <v>0.42506836609999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D26">
+        <v>0.42506836609999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D27">
+        <v>2.1244837124999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D28">
+        <v>9.1268226489999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D29">
+        <v>9.9509551599999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D30">
+        <v>12.737629783999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D31">
+        <v>1.5171316500000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D32">
+        <v>0.52187471149999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D33">
+        <v>0.85990958500000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D34">
+        <v>0.42506836609999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D35">
+        <v>0.42506836609999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D36">
+        <v>2.1244837124999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D37">
+        <v>9.1268226489999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D38">
+        <v>9.9509551599999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D39">
+        <v>12.737629783999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D40">
+        <v>1.5171316500000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D41">
+        <v>0.52187471149999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D42">
+        <v>0.85990958500000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D43">
+        <v>0.42506836609999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D44">
+        <v>0.42506836609999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D45">
+        <v>2.1244837124999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D46">
+        <v>9.1268226489999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D47">
+        <v>5.4977237920000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D48">
+        <v>5.4125468200000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D49">
+        <v>1.0744394800000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D50">
+        <v>0.3405069188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D51">
+        <v>0.37061430000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D52">
+        <v>0.33190191031999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D53">
+        <v>0.33190191031999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D54">
+        <v>1.1284263300000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D55">
+        <v>5.7498951376000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="D56">
+        <v>5.173506508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1.8999999999999998E-7</v>
+      </c>
+      <c r="D57">
+        <v>5.1565919320000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="D58">
+        <v>5.1022768950000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D59">
+        <v>0.32630590745000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="D60">
+        <v>0.33223701749999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="D61">
+        <v>0.32460702143000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="D62">
+        <v>0.32460702143000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="D63">
+        <v>1.0504355137500001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D64">
+        <v>5.4809019306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="D65">
+        <v>5.4472270680000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9.5000000000000012E-7</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>9.5000000000000012E-7</v>
+      </c>
+      <c r="D66">
+        <v>5.3720176139999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.8050000000000002E-5</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1.8050000000000002E-5</v>
+      </c>
+      <c r="D67">
+        <v>1.069040795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="D75">
+        <v>6.1036844800000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>9.5000000000000012E-7</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>9.5000000000000012E-7</v>
+      </c>
+      <c r="D76">
+        <v>5.8889297740000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1.8050000000000002E-5</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1.8050000000000002E-5</v>
+      </c>
+      <c r="D77">
+        <v>1.1392237000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5.0000000000000008E-7</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>5.0000000000000008E-7</v>
+      </c>
+      <c r="D85">
+        <v>5.5987172399999992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4.7500000000000006E-7</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>4.7500000000000006E-7</v>
+      </c>
+      <c r="D86">
+        <v>5.491289546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>9.0250000000000008E-6</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>9.0250000000000008E-6</v>
+      </c>
+      <c r="D87">
+        <v>1.08523685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3.0000000000000005E-6</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>3.0000000000000005E-6</v>
+      </c>
+      <c r="D95">
+        <v>5.1484941119999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5.4000000000000017E-6</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>5.4000000000000017E-6</v>
+      </c>
+      <c r="D96">
+        <v>5.1369156820000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.1600000000000007E-5</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>2.1600000000000007E-5</v>
+      </c>
+      <c r="D97">
+        <v>1.0355578329999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3.0000000000000005E-6</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>3.0000000000000005E-6</v>
+      </c>
+      <c r="D98">
+        <v>0.73633661680000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.3500000000000004E-6</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1.3500000000000004E-6</v>
+      </c>
+      <c r="D99">
+        <v>0.43960341800000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.5650000000000003E-5</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>2.5650000000000003E-5</v>
+      </c>
+      <c r="D100">
+        <v>0.10400291700000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="D105">
+        <v>5.253734948</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3.6000000000000007E-6</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>3.6000000000000007E-6</v>
+      </c>
+      <c r="D106">
+        <v>5.2200064779999993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.4400000000000003E-5</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1.4400000000000003E-5</v>
+      </c>
+      <c r="D107">
+        <v>1.043840707</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="D108">
+        <v>0.75212274219999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9.0000000000000017E-7</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>9.0000000000000017E-7</v>
+      </c>
+      <c r="D109">
+        <v>0.4856998595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1.7100000000000002E-5</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1.7100000000000002E-5</v>
+      </c>
+      <c r="D110">
+        <v>0.10569063675000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="D115">
+        <v>5.1484941119999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3.6000000000000007E-6</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>3.6000000000000007E-6</v>
+      </c>
+      <c r="D116">
+        <v>5.1369156820000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1.4400000000000003E-5</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1.4400000000000003E-5</v>
+      </c>
+      <c r="D117">
+        <v>1.0355578329999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="D118">
+        <v>0.73633661680000007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>9.0000000000000017E-7</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>9.0000000000000017E-7</v>
+      </c>
+      <c r="D119">
+        <v>0.43960341800000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.7100000000000002E-5</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1.7100000000000002E-5</v>
+      </c>
+      <c r="D120">
+        <v>0.10400291700000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>